--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,10 +540,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H2">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N2">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O2">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P2">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q2">
-        <v>0.02860185326133333</v>
+        <v>0.04862985584888889</v>
       </c>
       <c r="R2">
-        <v>0.257416679352</v>
+        <v>0.43766870264</v>
       </c>
       <c r="S2">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="T2">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H3">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>31.103307</v>
       </c>
       <c r="O3">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P3">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q3">
-        <v>0.257556117498</v>
+        <v>0.26237367416</v>
       </c>
       <c r="R3">
-        <v>2.318005057482</v>
+        <v>2.36136306744</v>
       </c>
       <c r="S3">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="T3">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H4">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N4">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O4">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P4">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q4">
-        <v>0.003285197167333334</v>
+        <v>0.003649153848888889</v>
       </c>
       <c r="R4">
-        <v>0.029566774506</v>
+        <v>0.03284238464</v>
       </c>
       <c r="S4">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="T4">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H5">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N5">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O5">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P5">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q5">
-        <v>0.02734551051466666</v>
+        <v>0.02992219776</v>
       </c>
       <c r="R5">
-        <v>0.246109594632</v>
+        <v>0.26929977984</v>
       </c>
       <c r="S5">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="T5">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,10 +788,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H6">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N6">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O6">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P6">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q6">
-        <v>0.009304488293333333</v>
+        <v>0.004717002391111112</v>
       </c>
       <c r="R6">
-        <v>0.08374039463999999</v>
+        <v>0.04245302152</v>
       </c>
       <c r="S6">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="T6">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
     </row>
   </sheetData>
